--- a/MCD/Dictionnaire.xlsx
+++ b/MCD/Dictionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\OneDrive\Documents\Bachelier\SGBD\Dossier Projet SGBD\MCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\source\repos\lefossoyeur\Dossier_Projet_SGBD\MCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2646C-5B73-48F5-9AC8-42420EB47A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0C173D-386F-4429-9E12-9D9FE43C83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Nom</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Obli</t>
-  </si>
-  <si>
     <t>Detecté dans</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
     <t>Sympathisant</t>
   </si>
   <si>
@@ -217,6 +211,9 @@
   </si>
   <si>
     <t>Date de la derniere maintenance</t>
+  </si>
+  <si>
+    <t>Appareil - Classe</t>
   </si>
 </sst>
 </file>
@@ -574,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,11 +582,10 @@
     <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,392 +595,400 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D29" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
